--- a/Data/EC/NIT-9017919194.xlsx
+++ b/Data/EC/NIT-9017919194.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0512EBFF-62FA-4EAC-BA98-B3FBF58B2EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D71360E5-1AAE-4492-A540-6E979F84D583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3EC7611A-3996-4775-AF9A-D0797EBEC65A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B19F8A03-DF0A-46EC-816A-85BD1B7B25AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,55 +71,55 @@
     <t>NEVER LUIS OSORIO VALDES</t>
   </si>
   <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
     <t>2405</t>
   </si>
   <si>
+    <t>1049939257</t>
+  </si>
+  <si>
+    <t>ERLIN JOSE AREVALO ROMERO</t>
+  </si>
+  <si>
+    <t>1007136273</t>
+  </si>
+  <si>
+    <t>DAISON MANUEL PEÑA RAMOS</t>
+  </si>
+  <si>
+    <t>78109371</t>
+  </si>
+  <si>
+    <t>MIGUEL ANTONIO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1049942190</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO CAMPO CABARCA</t>
+  </si>
+  <si>
     <t>1049939443</t>
   </si>
   <si>
     <t>DEILER VALDEZ DIAZ</t>
   </si>
   <si>
-    <t>78109371</t>
-  </si>
-  <si>
-    <t>MIGUEL ANTONIO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1049942190</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO CAMPO CABARCA</t>
-  </si>
-  <si>
-    <t>1007136273</t>
-  </si>
-  <si>
-    <t>DAISON MANUEL PEÑA RAMOS</t>
-  </si>
-  <si>
-    <t>1049939257</t>
-  </si>
-  <si>
-    <t>ERLIN JOSE AREVALO ROMERO</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
+    <t>2411</t>
   </si>
   <si>
     <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76C44DC-F8C5-256D-5A1C-7D23B3B48D5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4E8D3C-3464-82D8-193B-75859BF2494C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF537114-932A-4499-B3E1-74DC897F8BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861ED8FD-A4C4-416B-BEE3-230A8FA4BB15}">
   <dimension ref="B2:J63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1076,16 +1076,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
         <v>1300000</v>
@@ -1099,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1122,13 +1122,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1145,16 +1145,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G20" s="18">
         <v>1300000</v>
@@ -1168,16 +1168,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="G21" s="18">
         <v>1300000</v>
@@ -1197,7 +1197,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1214,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1237,13 +1237,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1260,16 +1260,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F25" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G25" s="18">
         <v>1300000</v>
@@ -1283,13 +1283,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1306,13 +1306,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1329,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1358,7 +1358,7 @@
         <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1375,13 +1375,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1398,13 +1398,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1427,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1444,13 +1444,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1467,13 +1467,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1490,13 +1490,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1513,13 +1513,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1536,13 +1536,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1559,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1582,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1605,13 +1605,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1628,13 +1628,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1651,13 +1651,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1674,13 +1674,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1697,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1720,16 +1720,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F45" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G45" s="18">
         <v>1300000</v>
@@ -1743,16 +1743,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="18">
-        <v>52000</v>
+        <v>24266</v>
       </c>
       <c r="G46" s="18">
         <v>1300000</v>
@@ -1766,13 +1766,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1789,16 +1789,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="18">
-        <v>52000</v>
+        <v>24266</v>
       </c>
       <c r="G48" s="18">
         <v>1300000</v>
@@ -1812,13 +1812,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1835,16 +1835,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="18">
-        <v>52000</v>
+        <v>24266</v>
       </c>
       <c r="G50" s="18">
         <v>1300000</v>
@@ -1858,13 +1858,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -1881,13 +1881,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F52" s="18">
         <v>24266</v>
@@ -1904,16 +1904,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F53" s="18">
-        <v>24266</v>
+        <v>52000</v>
       </c>
       <c r="G53" s="18">
         <v>1300000</v>
@@ -1927,13 +1927,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F54" s="18">
         <v>24266</v>
@@ -1950,16 +1950,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="18">
-        <v>24266</v>
+        <v>52000</v>
       </c>
       <c r="G55" s="18">
         <v>1300000</v>
@@ -1973,13 +1973,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F56" s="18">
         <v>24266</v>
@@ -1996,16 +1996,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F57" s="24">
-        <v>24266</v>
+        <v>52000</v>
       </c>
       <c r="G57" s="24">
         <v>1300000</v>

--- a/Data/EC/NIT-9017919194.xlsx
+++ b/Data/EC/NIT-9017919194.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D71360E5-1AAE-4492-A540-6E979F84D583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB816511-C3F7-4624-977F-5ACA03A3ABE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B19F8A03-DF0A-46EC-816A-85BD1B7B25AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2520880D-7D8C-4281-825F-EC2D6EF154F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,55 +71,55 @@
     <t>NEVER LUIS OSORIO VALDES</t>
   </si>
   <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>1049939257</t>
+  </si>
+  <si>
+    <t>ERLIN JOSE AREVALO ROMERO</t>
+  </si>
+  <si>
+    <t>1007136273</t>
+  </si>
+  <si>
+    <t>DAISON MANUEL PEÑA RAMOS</t>
+  </si>
+  <si>
+    <t>78109371</t>
+  </si>
+  <si>
+    <t>MIGUEL ANTONIO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1049942190</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO CAMPO CABARCA</t>
+  </si>
+  <si>
+    <t>1049939443</t>
+  </si>
+  <si>
+    <t>DEILER VALDEZ DIAZ</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
     <t>2409</t>
   </si>
   <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>1049939257</t>
-  </si>
-  <si>
-    <t>ERLIN JOSE AREVALO ROMERO</t>
-  </si>
-  <si>
-    <t>1007136273</t>
-  </si>
-  <si>
-    <t>DAISON MANUEL PEÑA RAMOS</t>
-  </si>
-  <si>
-    <t>78109371</t>
-  </si>
-  <si>
-    <t>MIGUEL ANTONIO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1049942190</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO CAMPO CABARCA</t>
-  </si>
-  <si>
-    <t>1049939443</t>
-  </si>
-  <si>
-    <t>DEILER VALDEZ DIAZ</t>
+    <t>2410</t>
   </si>
   <si>
     <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -218,7 +218,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -231,9 +233,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +433,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +477,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4E8D3C-3464-82D8-193B-75859BF2494C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{076E572B-A8F2-1AEE-7F49-AB366B2FFBF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861ED8FD-A4C4-416B-BEE3-230A8FA4BB15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA42C631-AF5B-4F0B-B469-7C0FC04187C6}">
   <dimension ref="B2:J63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1076,16 +1076,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G17" s="18">
         <v>1300000</v>
@@ -1099,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1122,13 +1122,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1145,16 +1145,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
         <v>1300000</v>
@@ -1168,16 +1168,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G21" s="18">
         <v>1300000</v>
@@ -1191,13 +1191,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1214,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1237,13 +1237,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1266,10 +1266,10 @@
         <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="G25" s="18">
         <v>1300000</v>
@@ -1289,7 +1289,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1306,13 +1306,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1329,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1352,13 +1352,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1375,13 +1375,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1398,13 +1398,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1421,13 +1421,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1450,7 +1450,7 @@
         <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1467,13 +1467,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1490,13 +1490,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1513,13 +1513,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1536,13 +1536,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1559,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1582,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1605,13 +1605,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1628,13 +1628,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1651,13 +1651,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1674,13 +1674,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1697,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1720,16 +1720,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F45" s="18">
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="G45" s="18">
         <v>1300000</v>
@@ -1752,7 +1752,7 @@
         <v>26</v>
       </c>
       <c r="F46" s="18">
-        <v>24266</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="18">
         <v>1300000</v>
@@ -1766,13 +1766,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1789,16 +1789,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="18">
-        <v>24266</v>
+        <v>52000</v>
       </c>
       <c r="G48" s="18">
         <v>1300000</v>
@@ -1818,7 +1818,7 @@
         <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1844,7 +1844,7 @@
         <v>26</v>
       </c>
       <c r="F50" s="18">
-        <v>24266</v>
+        <v>52000</v>
       </c>
       <c r="G50" s="18">
         <v>1300000</v>
@@ -1858,13 +1858,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -1881,13 +1881,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
         <v>24266</v>
@@ -1904,16 +1904,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F53" s="18">
-        <v>52000</v>
+        <v>24266</v>
       </c>
       <c r="G53" s="18">
         <v>1300000</v>
@@ -1927,13 +1927,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F54" s="18">
         <v>24266</v>
@@ -1950,16 +1950,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="18">
-        <v>52000</v>
+        <v>24266</v>
       </c>
       <c r="G55" s="18">
         <v>1300000</v>
@@ -1973,13 +1973,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F56" s="18">
         <v>24266</v>
@@ -1996,16 +1996,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F57" s="24">
-        <v>52000</v>
+        <v>24266</v>
       </c>
       <c r="G57" s="24">
         <v>1300000</v>
